--- a/team_specific_matrix/Mid-Atlantic Christ._B.xlsx
+++ b/team_specific_matrix/Mid-Atlantic Christ._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3157894736842105</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C2">
-        <v>0.3684210526315789</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.3157894736842105</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.02222222222222222</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1428571428571428</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5714285714285714</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2857142857142857</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2857142857142857</v>
+        <v>0.08</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2857142857142857</v>
+        <v>0.28</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2857142857142857</v>
+        <v>0.16</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="S6">
-        <v>0.1428571428571428</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.5714285714285714</v>
+        <v>0.3125</v>
       </c>
       <c r="R7">
-        <v>0.2857142857142857</v>
+        <v>0.125</v>
       </c>
       <c r="S7">
-        <v>0.1428571428571428</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3076923076923077</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1538461538461539</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.07692307692307693</v>
+        <v>0.2075471698113208</v>
       </c>
       <c r="R8">
-        <v>0.2307692307692308</v>
+        <v>0.1886792452830189</v>
       </c>
       <c r="S8">
-        <v>0.2307692307692308</v>
+        <v>0.2830188679245283</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.75</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="R9">
-        <v>0.25</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1296296296296296</v>
+        <v>0.08627450980392157</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05555555555555555</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.09259259259259259</v>
+        <v>0.04705882352941176</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1111111111111111</v>
+        <v>0.1450980392156863</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.00392156862745098</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.3703703703703703</v>
+        <v>0.3215686274509804</v>
       </c>
       <c r="R10">
-        <v>0.09259259259259259</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="S10">
-        <v>0.1481481481481481</v>
+        <v>0.2549019607843137</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K11">
-        <v>0.25</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L11">
-        <v>0.4166666666666667</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1283,16 +1283,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2727272727272727</v>
+        <v>0.15625</v>
       </c>
       <c r="I16">
-        <v>0.09090909090909091</v>
+        <v>0.0625</v>
       </c>
       <c r="J16">
-        <v>0.5454545454545454</v>
+        <v>0.59375</v>
       </c>
       <c r="K16">
-        <v>0.09090909090909091</v>
+        <v>0.03125</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.03125</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03333333333333333</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2333333333333333</v>
+        <v>0.1792452830188679</v>
       </c>
       <c r="I17">
-        <v>0.03333333333333333</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="J17">
-        <v>0.4</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="K17">
-        <v>0.1333333333333333</v>
+        <v>0.0660377358490566</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.06666666666666667</v>
+        <v>0.09433962264150944</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="I18">
-        <v>0.09090909090909091</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="J18">
-        <v>0.6363636363636364</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K18">
-        <v>0.1818181818181818</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09090909090909091</v>
+        <v>0.08163265306122448</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1519,28 +1519,28 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1304347826086956</v>
+        <v>0.1742424242424243</v>
       </c>
       <c r="I19">
-        <v>0.04347826086956522</v>
+        <v>0.03787878787878788</v>
       </c>
       <c r="J19">
-        <v>0.4782608695652174</v>
+        <v>0.5378787878787878</v>
       </c>
       <c r="K19">
-        <v>0.08695652173913043</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1739130434782609</v>
+        <v>0.1136363636363636</v>
       </c>
     </row>
   </sheetData>
